--- a/UserExperience.xlsx
+++ b/UserExperience.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17426"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\adrian.alecu\VAAS\"/>
@@ -12,10 +12,11 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9228"/>
   </bookViews>
   <sheets>
-    <sheet name="Questions" sheetId="1" r:id="rId1"/>
-    <sheet name="Help!!!" sheetId="4" r:id="rId2"/>
-    <sheet name="Nice to have features" sheetId="2" r:id="rId3"/>
-    <sheet name="FirstWorkflow Diagram" sheetId="3" r:id="rId4"/>
+    <sheet name="Nice to have 2017_01_19" sheetId="5" r:id="rId1"/>
+    <sheet name="Nice to have 2017_01_12" sheetId="2" r:id="rId2"/>
+    <sheet name="Help!!!" sheetId="4" r:id="rId3"/>
+    <sheet name="Questions" sheetId="1" r:id="rId4"/>
+    <sheet name="FirstWorkflow Diagram" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="63">
   <si>
     <t>It would be nice to have a state of the tutorial - it exists in the instance but it dissapears when you close it. It should be account related.</t>
   </si>
@@ -135,19 +136,282 @@
   </si>
   <si>
     <t>In our jars we already use some of the most famouse libs, how willing are you to change your version?</t>
+  </si>
+  <si>
+    <r>
+      <t>1/ It would be nice to have a state of the tutorial - it exists in the instance but it disappears when you close it. It should be account related. &gt;&gt;&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F497D"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ok to be able to reopen the tutorial at the last page left, we need to save the progress.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2/ It would be nice to have the Script Editor as a link so that you can do open in a new tab (there is the split of the page in two) &gt;&gt;&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F497D"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ok for a tutorial in a new tab when clicking on the tutorials tab at the top of the page. We can refer to what is already done in the FPP documentation tab which enables to open new tabs when clicking on the two function icons.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3/ Why use internet explorer? Because a Chrome bug where zoom is per domain and tutorial size is to small and Che bug with selecting files &gt;&gt;&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F497D"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Global zoom in Chrome and the font size is smaller in the script editor than in the tutorial. So if the user needs to reduce the size in the script editor (which is the case), it will be impossible to read the tutorial. Ok for dedicated zooms in the script editor and the tutorial.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4/ In the tuto "this" "here" word should be another color to realize its a link &gt;&gt;&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F497D"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Known issue, we are already working on a new version of the tutorial.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5/ The zoom needed to read the code in the tutorial as in a code editor is way to big &gt;&gt;&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F497D"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Not replicated during the meeting, the scrollbar is available and works. We need more details.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>6/ There are no feature to see tabs / spaces in the code? There is no feature to define how the format of the code should be done ? &gt;&gt;&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F497D"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Correct alignment, dos2unix useless.</t>
+    </r>
+  </si>
+  <si>
+    <t>7/ On rename, the file can no longer be seen. You have to minimize / maximaze the folder for it to reapear. &gt;&gt;&gt; Known issue, Che bug already reported to GitHub under https://github.com/eclipse/che/issues/3195.</t>
+  </si>
+  <si>
+    <r>
+      <t>8/ Auto complete classes ?? ( Found it - Assistant - Content Assit) - Key Binding possible? (Found it Ctrl-Space) &gt;&gt;&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F497D"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ok for autocomplete and go to definition functions. You can though investigate the key bindings tab that can provide you some workarounds (example: Ctrl+Shift+F instead of go to definition may be helpful). Enclosed, please find the list of bindings.</t>
+    </r>
+  </si>
+  <si>
+    <t>After resetting the tutorial, my Eclipse Che did not get refreshed. After a log out - log in all went well.</t>
+  </si>
+  <si>
+    <t>Firefox - at some point the interface is getting bugged with the image shifting to the left and no way of shifting it back (I had a full shifting at some point).</t>
+  </si>
+  <si>
+    <t>You could move the "Creating the … file" into a single page and put a link somewhere to the page on the Coding the functions needed for example …</t>
+  </si>
+  <si>
+    <t>I could not find any reference in the api for dataxD and I had to go back and forward for different json with different get messages to understand what it does</t>
+  </si>
+  <si>
+    <t>Lets say I want to use an already existing function: discountFactorInterpolator from InterestRate.module</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">dfInterpolParams </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- structure containing the parameters needed for interpolation and conversion to DF //and there, I have no clue</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">discountDate </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- interpolation date // I will say that it will be the item that will be searched in maturities and the expression is in days</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">pointFloorIndex </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- floor index corresponding to discountDate // i am lost</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">maturities </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- vector of curve maturities (expressed as tenors in number of days) // as in the sample market data</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">values </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- vector of values containing the discount factors according to the maturities stored in the curveMaturities vector // ok the values that will be used for intepolation</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">interpolationMethod </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- interpolation method : can be linear or flat or cubicSpline // is it the string liner/flat/cubicSpline ?</t>
+    </r>
+  </si>
+  <si>
+    <t>Firefox - at some point the interface is getting bugged with the image shifting to the left and no way of shifting it back (I had a full shifting at some point) - have no clue how to reproduce but I had this three times</t>
+  </si>
+  <si>
+    <t>I could not find any reference in the api for dataxD and I had to go back and forward for different json with different get messages to understand what it does (it si related to the construction of PricingData)</t>
+  </si>
+  <si>
+    <t>What about archiving the input (here are some figures, row data - 50 mega, json data 500 M, ziped data 13 mega), however archiving comes with a high CPU cost (yes I know not in the scope of this tutorial)</t>
+  </si>
+  <si>
+    <t>From the documentation that I have, I have little way of knowing which parameter stands for what - all provided API should come with an example</t>
+  </si>
+  <si>
+    <t>[ws-machine] /bin/bash: line 1: 12192 Segmentation fault      (core dumped) mvn clean install -DskipTests exec:java -Dexec.mainClass="com.trmsys.fpp.library.vaas.Runner" -Dexec.args="--script Tester1 --scenarioData src/main/resources/com/trmsys/fpp/library/pricingData/JPY_allMarket.json --documents src/main/resources/com/trmsys/fpp/library/documents/Tester1_OneIndex.json --dates 2010-10-10"</t>
+  </si>
+  <si>
+    <t>At some point the same run will do a Segmentation fault</t>
+  </si>
+  <si>
+    <t>At some point the copy paste no longer works … it is fixed by reloading the environement</t>
+  </si>
+  <si>
+    <t>floatRandom is always the same … needs a seed option ?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F497D"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF1F497D"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="5">
@@ -185,19 +449,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -217,16 +490,153 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>784860</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>117203</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>22789</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>334936</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>51131</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Image 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B5D32AC-7D8E-4B63-AE70-060948704311}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="365760"/>
+          <a:ext cx="17990476" cy="2428571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6085714</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>153509</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Image 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B19818C9-25DF-4ECA-8C52-0D418C066A8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4389120"/>
+          <a:ext cx="6085714" cy="6371429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>386469</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>148411</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Image 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EFD3230-DBC0-468C-AFB3-9D7631E7A779}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9730740" y="4389120"/>
+          <a:ext cx="1971429" cy="1428571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>8046720</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>25763</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>83749</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -249,8 +659,184 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3954780" y="365760"/>
+          <a:off x="8046720" y="243840"/>
           <a:ext cx="7257143" cy="571429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>652145</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>91269</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Image 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBEF1EC5-50D4-440F-BD93-ED5AC86B386F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10523220" y="6035040"/>
+          <a:ext cx="10161905" cy="1371429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9647619</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>32198</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Image 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F534B8F-3768-4B7F-8053-7BEA3DD02BC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6035040"/>
+          <a:ext cx="9647619" cy="1495238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6190476</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>173128</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Image 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D45A147D-D537-4473-95B9-7C36353F8BEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="8229600"/>
+          <a:ext cx="6190476" cy="1819048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>334936</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>51131</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Image 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D2F208A-B3C1-4776-8D94-20AAB7F3356A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="10424160"/>
+          <a:ext cx="17990476" cy="2428571"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -559,55 +1145,271 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="141.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>35</v>
-      </c>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="4"/>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="4"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="4"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="5"/>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="7"/>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A64"/>
+  <sheetViews>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="141.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="28.8">
+      <c r="A15" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="43.2">
+      <c r="A16" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="43.2">
+      <c r="A17" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="28.8">
+      <c r="A19" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="28.8">
+      <c r="A20" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="28.8">
+      <c r="A21" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="43.2">
+      <c r="A22" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A21" r:id="rId1" display="https://github.com/eclipse/che/issues/3195"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -615,9 +1417,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -627,88 +1429,57 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:K21"/>
   <sheetViews>
@@ -716,7 +1487,7 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
@@ -732,139 +1503,139 @@
     <col min="12" max="12" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D3" s="1" t="s">
+    <row r="3" spans="1:11">
+      <c r="D3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D4" s="2" t="s">
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="D4" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C7" s="2" t="s">
+    <row r="7" spans="1:11">
+      <c r="C7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C8" s="1" t="s">
+    <row r="8" spans="1:11">
+      <c r="C8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C9" s="2" t="s">
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="C9" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C11" s="2" t="s">
+    <row r="11" spans="1:11">
+      <c r="C11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C12" s="3" t="s">
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="C12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C13" s="2" t="s">
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="C13" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:11">
+      <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="J15" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:11">
+      <c r="A16" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="G16" s="1" t="s">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="G16" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:7">
+      <c r="A19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:7">
+      <c r="A20" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="3" t="s">
         <v>28</v>
       </c>
     </row>

--- a/UserExperience.xlsx
+++ b/UserExperience.xlsx
@@ -5,18 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\adrian.alecu\VAAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\adrian.alecu\VAAS\VAASDoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9228"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9228" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Nice to have 2017_01_19" sheetId="5" r:id="rId1"/>
-    <sheet name="Nice to have 2017_01_12" sheetId="2" r:id="rId2"/>
-    <sheet name="Help!!!" sheetId="4" r:id="rId3"/>
-    <sheet name="Questions" sheetId="1" r:id="rId4"/>
-    <sheet name="FirstWorkflow Diagram" sheetId="3" r:id="rId5"/>
+    <sheet name="Nice to have 2017_02_02" sheetId="6" r:id="rId1"/>
+    <sheet name="Nice to have 2017_01_19" sheetId="5" r:id="rId2"/>
+    <sheet name="Nice to have 2017_01_12" sheetId="2" r:id="rId3"/>
+    <sheet name="Help!!!" sheetId="4" r:id="rId4"/>
+    <sheet name="Questions" sheetId="1" r:id="rId5"/>
+    <sheet name="FirstWorkflow Diagram" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="80">
   <si>
     <t>It would be nice to have a state of the tutorial - it exists in the instance but it dissapears when you close it. It should be account related.</t>
   </si>
@@ -249,13 +250,7 @@
     <t>After resetting the tutorial, my Eclipse Che did not get refreshed. After a log out - log in all went well.</t>
   </si>
   <si>
-    <t>Firefox - at some point the interface is getting bugged with the image shifting to the left and no way of shifting it back (I had a full shifting at some point).</t>
-  </si>
-  <si>
     <t>You could move the "Creating the … file" into a single page and put a link somewhere to the page on the Coding the functions needed for example …</t>
-  </si>
-  <si>
-    <t>I could not find any reference in the api for dataxD and I had to go back and forward for different json with different get messages to understand what it does</t>
   </si>
   <si>
     <t>Lets say I want to use an already existing function: discountFactorInterpolator from InterestRate.module</t>
@@ -374,12 +369,141 @@
   <si>
     <t>floatRandom is always the same … needs a seed option ?</t>
   </si>
+  <si>
+    <r>
+      <t>1/ Firefox - at some point the interface is getting bugged with the image shifting to the left and no way of shifting it back (I had a full shifting at some point) - have no clue how to reproduce but I had this three times </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;&gt;&gt; Out of scope , there might be display issues with Firefox since no compatibility compliance.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2/ You could move the "Creating the … file" into a single page and put a link somewhere to the page on the Coding the functions needed for example … </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;&gt;&gt; Ok to merge "Creating..." parts in tutorial part 4 since repetitive.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3/ I could not find any reference in the api for dataxD and I had to go back and forward for different json with different get messages to understand what it does (it si related to the construction of PricingData) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;&gt;&gt; Ok to create a documentation for dataxD.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4/ What about archiving the input (here are some figures, row data - 50 mega, json data 500 M, ziped data 13 mega), however archiving comes with a high CPU cost (yes I know not in the scope of this tutorial) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;&gt;&gt; Out of scope.</t>
+    </r>
+  </si>
+  <si>
+    <t>5/ Lets say I want to use an already existing function: discountFactorInterpolator from InterestRate.module</t>
+  </si>
+  <si>
+    <t>discountDate - interpolation date // I will say that it will be the item that will be searched in maturities and the expression is in days</t>
+  </si>
+  <si>
+    <t>pointFloorIndex - floor index corresponding to discountDate // i am lost</t>
+  </si>
+  <si>
+    <t>maturities - vector of curve maturities (expressed as tenors in number of days) // as in the sample market data</t>
+  </si>
+  <si>
+    <t>values - vector of values containing the discount factors according to the maturities stored in the curveMaturities vector // ok the values that will be used for interpolation</t>
+  </si>
+  <si>
+    <t>interpolationMethod - interpolation method : can be linear or flat or cubicSpline // is it the string liner/flat/cubicSpline ?</t>
+  </si>
+  <si>
+    <t>dfInterpolParams - structure containing the parameters needed for interpolation and conversion to DF //and there, I have no clue</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; Ok to create a symbolic link between all the functions of the tutorials and the Javadoc, and an example for each function should be implemented. The types of the input parameters should also be provided with real examples of the input parameters. However, low level function, should not be exposed. We need to decide when and how we will switch from public to private functions.</t>
+  </si>
+  <si>
+    <t>6/ At some point the copy paste no longer works … it is fixed by reloading the environement &gt;&gt;&gt; Known issue, Che bug already reported to GitHub under https://github.com/eclipse/che/issues/3196.</t>
+  </si>
+  <si>
+    <t>7/ At some point the same run will do a Segmentation fault</t>
+  </si>
+  <si>
+    <t>[ws-machine] /bin/bash: line 1: 12192 Segmentation fault      (core dumped) mvn clean install -DskipTests exec:java -Dexec.mainClass="com.trmsys.fpp.library.vaas.Runner" -Dexec.args="--script Tester1 --scenarioData src/main/resources/com/trmsys/fpp/library/pricingData/JPY_allMarket.json --documents src/main/resources/com/trmsys/fpp/library/documents/Tester1_OneIndex.json --dates 2010-10-10"</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; Ok, issue to be fixed and reproduced while running a simulation (Tester1_MultipleScenarios for instance) several times in a row (4-5 times). We finally get the following error message:</t>
+  </si>
+  <si>
+    <t>[ws-machine] /bin/bash: line 1:  1367 Segmentation fault      (core dumped) mvn clean install -DskipTests exec:java -Dexec.mainClass="com.trmsys.fpp.library.vaas.Runner" -Dexec.args="--script Tester1 --scenarioData src/main/resources/com/trmsys/fpp/library/pricingData/JPY_allMarketParallel.json --documents src/main/resources/com/trmsys/fpp/library/documents/Tester1_MultipleScenarios.json --dates 2010-10-10"</t>
+  </si>
+  <si>
+    <r>
+      <t>8/ floatRandom is always the same … needs a seed option ? </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;&gt;&gt; Already exists.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>9/ Real parallelization impact? </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;&gt;&gt; Yes, there is a significant impact when you properly build your script. You need circa 30s to get prices in both simulations, with and without parallelization of the market data inputs. I have rebuilt your script and I get 8.966s to get prices with parallelized scenario values against 11.464s without. Enclosed, please find the script and results.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -412,6 +536,19 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -453,7 +590,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
@@ -464,10 +601,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -491,15 +634,68 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
+      <xdr:colOff>6564086</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>315686</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="m_727779013443106839Image 6" descr="https://mail.google.com/mail/u/0/?ui=2&amp;ik=0cb6cc1ec6&amp;view=fimg&amp;th=159d0418701d4da5&amp;attid=0.0.1&amp;disp=emb&amp;attbid=ANGjdJ_0dI9HbUuBebnGJou5-sClUL2zONUcvg57zck3JOkR8SG-icVqpekwKOAlbEM3-l8m5RK2lmaSN5iIoPY6uLekdT8cEdL1UpnOvi9O4vHpLJ3TP32tdxWxpGM&amp;sz=w2536-h336&amp;ats=1485351757835&amp;rm=159d0418701d4da5&amp;zw&amp;atsh=1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35ABEAE3-D38F-40E5-BCB9-4CE21F5DAB6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6564086" y="12656820"/>
+          <a:ext cx="12085320" cy="1602377"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>334936</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>51131</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>8186057</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>6169</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -522,8 +718,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="365760"/>
-          <a:ext cx="17990476" cy="2428571"/>
+          <a:off x="0" y="370114"/>
+          <a:ext cx="8186057" cy="1116512"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -535,15 +731,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>32657</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>185056</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>6085714</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>153509</xdr:rowOff>
+      <xdr:colOff>2449286</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>153736</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -566,8 +762,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="4389120"/>
-          <a:ext cx="6085714" cy="6371429"/>
+          <a:off x="32657" y="2590799"/>
+          <a:ext cx="2416629" cy="2559480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -578,16 +774,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2656115</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>141514</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>386469</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>148411</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4631898</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>104868</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -610,8 +806,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9730740" y="4389120"/>
-          <a:ext cx="1971429" cy="1428571"/>
+          <a:off x="2656115" y="2917371"/>
+          <a:ext cx="1975783" cy="1443811"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -620,10 +816,58 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6564086</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>315686</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>169817</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1025" name="m_727779013443106839Image 6" descr="https://mail.google.com/mail/u/0/?ui=2&amp;ik=0cb6cc1ec6&amp;view=fimg&amp;th=159d0418701d4da5&amp;attid=0.0.1&amp;disp=emb&amp;attbid=ANGjdJ_0dI9HbUuBebnGJou5-sClUL2zONUcvg57zck3JOkR8SG-icVqpekwKOAlbEM3-l8m5RK2lmaSN5iIoPY6uLekdT8cEdL1UpnOvi9O4vHpLJ3TP32tdxWxpGM&amp;sz=w2536-h336&amp;ats=1485351757835&amp;rm=159d0418701d4da5&amp;zw&amp;atsh=1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43CE1E98-1003-4FA9-8098-CD098DA2A5CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6564086" y="17047028"/>
+          <a:ext cx="12083143" cy="1617617"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -793,50 +1037,6 @@
         <a:xfrm>
           <a:off x="0" y="8229600"/>
           <a:ext cx="6190476" cy="1819048"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>334936</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>51131</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Image 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D2F208A-B3C1-4776-8D94-20AAB7F3356A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="10424160"/>
-          <a:ext cx="17990476" cy="2428571"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1145,114 +1345,121 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A81"/>
+  <dimension ref="A15:A69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77"/>
+    <sheetView topLeftCell="A73" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A98" sqref="A98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="141.88671875" customWidth="1"/>
+    <col min="1" max="1" width="255.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>55</v>
-      </c>
-    </row>
     <row r="15" spans="1:1">
       <c r="A15" s="4"/>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="4"/>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>46</v>
-      </c>
-    </row>
     <row r="18" spans="1:1">
       <c r="A18" s="4"/>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>56</v>
-      </c>
-    </row>
     <row r="21" spans="1:1">
       <c r="A21" s="5"/>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
-        <v>57</v>
-      </c>
+    <row r="32" spans="1:1">
+      <c r="A32" s="6"/>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="6"/>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="6"/>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="6"/>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="6"/>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="6"/>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="6"/>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="6"/>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="6"/>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="6"/>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="8"/>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="8"/>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="8"/>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="8"/>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="8"/>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="8"/>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="8"/>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="8"/>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="8"/>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="8"/>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="8"/>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="8"/>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="9"/>
     </row>
     <row r="62" spans="1:1">
-      <c r="A62" t="s">
-        <v>48</v>
-      </c>
+      <c r="A62" s="5"/>
     </row>
     <row r="63" spans="1:1">
-      <c r="A63" t="s">
-        <v>58</v>
-      </c>
+      <c r="A63" s="8"/>
     </row>
     <row r="64" spans="1:1">
-      <c r="A64" s="7" t="s">
-        <v>50</v>
-      </c>
+      <c r="A64" s="8"/>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65" s="7" t="s">
-        <v>51</v>
-      </c>
+      <c r="A65" s="9"/>
     </row>
     <row r="66" spans="1:1">
-      <c r="A66" s="7" t="s">
-        <v>52</v>
-      </c>
+      <c r="A66" s="9"/>
     </row>
     <row r="67" spans="1:1">
-      <c r="A67" s="7" t="s">
-        <v>53</v>
-      </c>
+      <c r="A67" s="8"/>
     </row>
     <row r="68" spans="1:1">
-      <c r="A68" s="7" t="s">
-        <v>54</v>
-      </c>
+      <c r="A68" s="8"/>
     </row>
     <row r="69" spans="1:1">
-      <c r="A69" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1">
-      <c r="A75" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1">
-      <c r="A79" s="7"/>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" s="7"/>
+      <c r="A69" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1263,10 +1470,225 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A64"/>
+  <dimension ref="A1:A69"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="255.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="4"/>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="4"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="4"/>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="5"/>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="20.399999999999999">
+      <c r="A48" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="20.399999999999999">
+      <c r="A50" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="20.399999999999999">
+      <c r="A51" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="20.399999999999999">
+      <c r="A52" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="30.6">
+      <c r="A61" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="28.8">
+      <c r="A62" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="20.399999999999999">
+      <c r="A64" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="20.399999999999999">
+      <c r="A66" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="20.399999999999999">
+      <c r="A68" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -1384,21 +1806,6 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
-      <c r="A47" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" t="s">
-        <v>47</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A21" r:id="rId1" display="https://github.com/eclipse/che/issues/3195"/>
@@ -1409,7 +1816,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1429,7 +1836,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
@@ -1479,7 +1886,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:K21"/>
   <sheetViews>
@@ -1504,11 +1911,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:11">
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:11">
       <c r="D4" s="1" t="s">
@@ -1524,13 +1931,13 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:11">
       <c r="C9" s="1" t="s">
@@ -1591,20 +1998,20 @@
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="G16" s="6" t="s">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="G16" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
@@ -1626,13 +2033,13 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="3" t="s">

--- a/UserExperience.xlsx
+++ b/UserExperience.xlsx
@@ -2,24 +2,24 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\adrian.alecu\VAAS\VAASDoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9228" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9228"/>
   </bookViews>
   <sheets>
-    <sheet name="Nice to have 2017_02_02" sheetId="6" r:id="rId1"/>
+    <sheet name="Nice to have 2017_02_17" sheetId="6" r:id="rId1"/>
     <sheet name="Nice to have 2017_01_19" sheetId="5" r:id="rId2"/>
     <sheet name="Nice to have 2017_01_12" sheetId="2" r:id="rId3"/>
     <sheet name="Help!!!" sheetId="4" r:id="rId4"/>
     <sheet name="Questions" sheetId="1" r:id="rId5"/>
     <sheet name="FirstWorkflow Diagram" sheetId="3" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="106">
   <si>
     <t>It would be nice to have a state of the tutorial - it exists in the instance but it dissapears when you close it. It should be account related.</t>
   </si>
@@ -497,6 +497,88 @@
       </rPr>
       <t>&gt;&gt;&gt; Yes, there is a significant impact when you properly build your script. You need circa 30s to get prices in both simulations, with and without parallelization of the market data inputs. I have rebuilt your script and I get 8.966s to get prices with parallelized scenario values against 11.464s without. Enclosed, please find the script and results.</t>
     </r>
+  </si>
+  <si>
+    <t>The operation is ok when using a new empty sheet</t>
+  </si>
+  <si>
+    <t>When transforming the item, points should be centered up, else the scrolling can get long.</t>
+  </si>
+  <si>
+    <t>First try - paste Json from cliboard the dev environement into Market Data Values: JPY10MD156N.json - the pasted json should start from the selected cell</t>
+  </si>
+  <si>
+    <t>The videos - you should redo them, the quality of the sound is quite bad</t>
+  </si>
+  <si>
+    <t>The functions should have help on arguments:</t>
+  </si>
+  <si>
+    <t>I think it is important to state that every FFP object is a Json and you can do a FppCommandViewJson to get more information</t>
+  </si>
+  <si>
+    <t>I am trying to use the function FppFromJson without any success I have passed the string {
+    ""PriceIndex"": [
+     ""ONTD156N""
+    ]
+}</t>
+  </si>
+  <si>
+    <t>In the tutorial there should be the information of which call is connecting to the server, =FppRetrieveLibraryContent(B8) - does not work stand alone and I had to copy the full ServerConfig page to connect</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "errors": [],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "traceLog": [],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "results": [</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "values": [</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        []</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "type": "ARRAY"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ]</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>I think you need to add some framework debuging messages, I call pricer, it gets somewhere but I have no clue what happends:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "id": "622be1ca-1e3b-472a-95a1-6082c7978be3",</t>
+  </si>
+  <si>
+    <t>You need to have a shortcut key to ViewJson</t>
+  </si>
+  <si>
+    <t>The videos - the one that is doing them should write from 0, not delete and type the same text that was already there (give the impression that its a training)</t>
+  </si>
+  <si>
+    <t>The users need excel examples with each function used (just like the ones that exist but for all functions). Ex: on a client, when you wrote a function, you also did an excel with an example of how to use the function and also you wrote the list of parameters with a small statement.</t>
+  </si>
+  <si>
+    <t>How to user FppData1D to get a multi scenario array?</t>
   </si>
 </sst>
 </file>
@@ -602,14 +684,14 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -641,8 +723,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>315686</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>104502</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -677,6 +759,178 @@
         </a:extLst>
       </xdr:spPr>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5421086</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>21773</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>11181806</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>170363</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Image 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15A50F00-F4CD-4FDD-B587-43F870C0EAC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5421086" y="576944"/>
+          <a:ext cx="5760720" cy="2739390"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>21771</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>43543</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4241346</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Image 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B436414-2C16-46E7-A688-288F2E32BC4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21771" y="598714"/>
+          <a:ext cx="4219575" cy="2457450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>8019048</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>176533</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Image 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E514562-62DD-42A1-B106-861F00A933A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3777343"/>
+          <a:ext cx="8019048" cy="2876190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6714286</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>112485</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Image 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{525ABBC6-9162-4D03-B99C-00716737E684}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7957457"/>
+          <a:ext cx="6714286" cy="3628571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1345,10 +1599,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A15:A69"/>
+  <sheetPr codeName="Feuil1"/>
+  <dimension ref="A1:A90"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A98" sqref="A98"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A91" sqref="A91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -1356,6 +1611,16 @@
     <col min="1" max="1" width="255.77734375" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>80</v>
+      </c>
+    </row>
     <row r="15" spans="1:1">
       <c r="A15" s="4"/>
     </row>
@@ -1365,6 +1630,11 @@
     <row r="18" spans="1:1">
       <c r="A18" s="4"/>
     </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>81</v>
+      </c>
+    </row>
     <row r="21" spans="1:1">
       <c r="A21" s="5"/>
     </row>
@@ -1386,80 +1656,180 @@
     <row r="37" spans="1:1">
       <c r="A37" s="6"/>
     </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>83</v>
+      </c>
+    </row>
     <row r="40" spans="1:1">
       <c r="A40" s="6"/>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="6"/>
+      <c r="A41" s="6" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="6"/>
+      <c r="A43" s="6" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="6"/>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="8"/>
+      <c r="A48" s="7"/>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="8"/>
+      <c r="A50" s="7"/>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="8"/>
+      <c r="A51" s="7"/>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="8"/>
+      <c r="A52" s="7"/>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" s="8"/>
+      <c r="A53" s="7"/>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54" s="8"/>
+      <c r="A54" s="7"/>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="8"/>
+      <c r="A55" s="7"/>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="8"/>
+      <c r="A56" s="7"/>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57" s="8"/>
+      <c r="A57" s="7"/>
     </row>
     <row r="58" spans="1:1">
-      <c r="A58" s="8"/>
+      <c r="A58" s="7"/>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" s="8"/>
+      <c r="A59" s="7"/>
     </row>
     <row r="60" spans="1:1">
-      <c r="A60" s="8"/>
+      <c r="A60" s="7"/>
     </row>
     <row r="61" spans="1:1">
-      <c r="A61" s="9"/>
+      <c r="A61" s="8"/>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="5"/>
     </row>
     <row r="63" spans="1:1">
-      <c r="A63" s="8"/>
+      <c r="A63" s="7"/>
     </row>
     <row r="64" spans="1:1">
-      <c r="A64" s="8"/>
+      <c r="A64" s="7" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65" s="9"/>
+      <c r="A65" s="8"/>
     </row>
     <row r="66" spans="1:1">
-      <c r="A66" s="9"/>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" s="8"/>
+      <c r="A66" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="61.2">
+      <c r="A67" s="7" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="68" spans="1:1">
-      <c r="A68" s="8"/>
+      <c r="A68" s="7"/>
     </row>
     <row r="69" spans="1:1">
-      <c r="A69" s="8"/>
+      <c r="A69" s="7"/>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" t="s">
+        <v>105</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1470,9 +1840,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:A69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
@@ -1573,108 +1944,108 @@
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="20.399999999999999">
-      <c r="A48" s="8" t="s">
+    <row r="48" spans="1:1">
+      <c r="A48" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="20.399999999999999">
-      <c r="A50" s="8" t="s">
+    <row r="50" spans="1:1">
+      <c r="A50" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="20.399999999999999">
-      <c r="A51" s="8" t="s">
+    <row r="51" spans="1:1">
+      <c r="A51" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="20.399999999999999">
-      <c r="A52" s="8" t="s">
+    <row r="52" spans="1:1">
+      <c r="A52" s="7" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" s="8" t="s">
+      <c r="A53" s="7" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54" s="8" t="s">
+      <c r="A54" s="7" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="8" t="s">
+      <c r="A55" s="7" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="8" t="s">
+      <c r="A56" s="7" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="7" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="58" spans="1:1">
-      <c r="A58" s="8" t="s">
+      <c r="A58" s="7" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" s="8" t="s">
+      <c r="A59" s="7" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="60" spans="1:1">
-      <c r="A60" s="8" t="s">
+      <c r="A60" s="7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="30.6">
-      <c r="A61" s="9" t="s">
+    <row r="61" spans="1:1" ht="20.399999999999999">
+      <c r="A61" s="8" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="28.8">
+    <row r="62" spans="1:1">
       <c r="A62" s="5" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="63" spans="1:1">
-      <c r="A63" s="8" t="s">
+      <c r="A63" s="7" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="20.399999999999999">
-      <c r="A64" s="8" t="s">
+      <c r="A64" s="7" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65" s="9" t="s">
+      <c r="A65" s="8" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="20.399999999999999">
-      <c r="A66" s="9" t="s">
+      <c r="A66" s="8" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="67" spans="1:1">
-      <c r="A67" s="8" t="s">
+      <c r="A67" s="7" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="20.399999999999999">
-      <c r="A68" s="8" t="s">
+      <c r="A68" s="7" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="69" spans="1:1">
-      <c r="A69" s="8"/>
+      <c r="A69" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1685,6 +2056,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Feuil3"/>
   <dimension ref="A1:A35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1818,6 +2190,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Feuil4"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1838,6 +2211,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Feuil5"/>
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1888,6 +2262,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Feuil6"/>
   <dimension ref="A3:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1911,11 +2286,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:11">
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:11">
       <c r="D4" s="1" t="s">
@@ -1931,13 +2306,13 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
     </row>
     <row r="9" spans="1:11">
       <c r="C9" s="1" t="s">
@@ -1998,20 +2373,20 @@
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="G16" s="7" t="s">
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="G16" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
@@ -2033,13 +2408,13 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="3" t="s">
